--- a/Data/Dialogs/dlgProductInsuranceBase.xlsx
+++ b/Data/Dialogs/dlgProductInsuranceBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248C5963-C84C-4181-8A8D-0658619BFD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C62B88-D906-44AC-8C16-14AD63125BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3576" yWindow="2268" windowWidth="29856" windowHeight="12480" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2256" yWindow="2928" windowWidth="39024" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>Action</t>
   </si>
@@ -96,9 +96,6 @@
     <t>&lt;NOTSELECTED&gt;</t>
   </si>
   <si>
-    <t>Goto insurant page</t>
-  </si>
-  <si>
     <t>&lt;SELECT&gt;</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Choose Ultimate</t>
   </si>
   <si>
-    <t>Goto product page</t>
-  </si>
-  <si>
     <t>Send Quote - Button Main Page</t>
   </si>
   <si>
@@ -142,6 +136,21 @@
   </si>
   <si>
     <t>102_AutomobileInsurance_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>Goto price option page</t>
+  </si>
+  <si>
+    <t>Goto vehicle data page</t>
+  </si>
+  <si>
+    <t>Goto insurant data page</t>
+  </si>
+  <si>
+    <t>Goto product data page</t>
+  </si>
+  <si>
+    <t>Goto send quote page</t>
   </si>
 </sst>
 </file>
@@ -225,13 +234,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>99061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>212057</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -565,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,13 +685,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -690,122 +699,125 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>38</v>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
-        <v>29</v>
+      <c r="C14" t="s">
+        <v>25</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -813,13 +825,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -827,15 +839,57 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="G16" t="s">
-        <v>33</v>
+      <c r="F16" t="s">
+        <v>27</v>
       </c>
       <c r="H16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Data/Dialogs/dlgProductInsuranceBase.xlsx
+++ b/Data/Dialogs/dlgProductInsuranceBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C62B88-D906-44AC-8C16-14AD63125BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DF5556-AFCC-4684-8CC6-3DA8B08C8761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="2928" windowWidth="39024" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2520" yWindow="1236" windowWidth="34512" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -75,21 +75,6 @@
     <t>VIA_Pixel9Pro_API35</t>
   </si>
   <si>
-    <t>//*[@id="insurance-form"]/div/section[1]</t>
-  </si>
-  <si>
-    <t>//*[@id="insurance-form"]/div/section[2]</t>
-  </si>
-  <si>
-    <t>//*[@id="insurance-form"]/div/section[3]</t>
-  </si>
-  <si>
-    <t>//*[@id="insurance-form"]/div/section[4]</t>
-  </si>
-  <si>
-    <t>//*[@id="insurance-form"]/div/section[5]</t>
-  </si>
-  <si>
     <t>&lt;SELECTED&gt;</t>
   </si>
   <si>
@@ -151,6 +136,21 @@
   </si>
   <si>
     <t>Goto send quote page</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[1]</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[2]</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[3]</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[4]</t>
+  </si>
+  <si>
+    <t>//*[@id='insurance-form']/div/section[5]</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F29" sqref="F29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,19 +597,19 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -699,13 +699,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -713,13 +713,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -755,13 +755,13 @@
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -769,13 +769,13 @@
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>4</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -797,13 +797,13 @@
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>4</v>
@@ -811,13 +811,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -825,13 +825,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -839,13 +839,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -881,13 +881,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>

--- a/Data/Dialogs/dlgProductInsuranceBase.xlsx
+++ b/Data/Dialogs/dlgProductInsuranceBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DF5556-AFCC-4684-8CC6-3DA8B08C8761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9704714E-103E-44E3-B5FA-67E993C3BADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1236" windowWidth="34512" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2460" yWindow="1344" windowWidth="34512" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>Action</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>//*[@id='insurance-form']/div/section[5]</t>
+  </si>
+  <si>
+    <t>Select Silver</t>
+  </si>
+  <si>
+    <t>Select Gold</t>
+  </si>
+  <si>
+    <t>Select Platinum</t>
+  </si>
+  <si>
+    <t>Select Ultimate</t>
   </si>
 </sst>
 </file>
@@ -234,14 +246,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>99061</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>212057</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -264,7 +276,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3025141"/>
+          <a:off x="0" y="4648201"/>
           <a:ext cx="8594057" cy="5059680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -574,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F30"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,13 +837,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -839,13 +851,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -853,13 +865,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -867,13 +879,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -881,15 +893,71 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
         <v>26</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H23" t="s">
         <v>4</v>
       </c>
     </row>
